--- a/Bank/bank/bankUpdateLog.xlsx
+++ b/Bank/bank/bankUpdateLog.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Add Value</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Version</t>
@@ -137,9 +134,6 @@
 update records for early effectiveDate with same currency as disabled</t>
   </si>
   <si>
-    <t>Comiitted</t>
-  </si>
-  <si>
     <t>add: generate time deposit to ics</t>
   </si>
   <si>
@@ -425,6 +419,66 @@
     <t>Archive Database page
 add: html, js, php
 add: 2createStudio / shuttle-export</t>
+  </si>
+  <si>
+    <t>template/screen/ci01scheduleTask.html
+update: use the font awesome icon to represent task status
+scheduleTaskManager.php
+fixed: calculate next day incorrect when task repeat in daily
+directive.entry.js, directive.editbox.js
+fixed: a entry with editbox inside, because the editbox $scope inherit the entry $scope, editbox will overwrite the entry $scope.tableStructure, that will affect ConvertEntryModelStrictWithSchema() in the CreateData(), UpdateData()
+- rename $scope.tableStructure to $scope.entryTableStructure
+- rename $scope.tableStructure to $scope.editboxTableStructure
+time-deposit-entry.js
+fixed: does not copy the record to entry form after selected the record on pageview</t>
+  </si>
+  <si>
+    <t>Uploaded</t>
+  </si>
+  <si>
+    <t>fixed: Incorrect auto calculation of Maturity date for daily/monthly/yearly time deposit
+fixed: error statement "Principal is required and greated than zero." contains wrong spelling of "greater".
+fixed: fill in correct information but deleting the value of principal, leave it blank and then a record can be created.
+add: validation on create of exchange rate entry js
+update: separate "Bank Account Current" from "Saving, Assets, Liabilities, Entry"</t>
+  </si>
+  <si>
+    <t>add disable/enable w3c toggle switch button in LockManager
+update: bank.css
+update: service.js
+bank maintenance.js, holiday maintenance.js
+fixed: reload pageview after data created/amended/deleted</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>combine both of Immature and Matured pageview list into Time Deposit Inquiry
+update: bi64timedeposit .html, .js, .php
+update: CustomSelectedToRecord due to pageview changed to inquriy directive</t>
+  </si>
+  <si>
+    <t>entry.js, editbox.js
+fixed: FindData(), month conversion added 1 month forward
+update: migrate DataTable to bi64timedeposit .html, .js,</t>
+  </si>
+  <si>
+    <t>update: view-calendar.html how to use description
+TimeDepositManager.php
+fixed: GetTimeDepositFutureRecords() function
+if no exchange rate record effective date is greater or equal to the td effective date, find the most recent past record</t>
   </si>
 </sst>
 </file>
@@ -929,13 +983,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,13 +998,14 @@
     <col min="5" max="5" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="77.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -963,48 +1018,56 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42939</v>
       </c>
@@ -1029,18 +1092,27 @@
         <f>D3</f>
         <v>1</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I12" si="0">E3&amp;"."&amp;F3&amp;"."&amp;G3</f>
+      <c r="H3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K12" si="0">E3&amp;"."&amp;F3&amp;"."&amp;G3</f>
         <v>0.0.1</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42941</v>
       </c>
@@ -1065,22 +1137,31 @@
         <f t="shared" ref="G4" si="3">IF($B4&gt;0,0,IF(C4&gt;0,0,G3+D4))</f>
         <v>1</v>
       </c>
-      <c r="I4" t="str">
+      <c r="H4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>0.0.1</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="5">
         <v>2</v>
       </c>
-      <c r="M4" s="7">
-        <f>SUM(K3:K4)</f>
+      <c r="O4" s="7">
+        <f>SUM(M3:M4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43221</v>
       </c>
@@ -1105,18 +1186,27 @@
         <f t="shared" ref="G5" si="6">IF($B5&gt;0,0,IF(C5&gt;0,0,G4+D5))</f>
         <v>2</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5:I6" si="7">E5&amp;"."&amp;F5&amp;"."&amp;G5</f>
+      <c r="H5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K6" si="7">E5&amp;"."&amp;F5&amp;"."&amp;G5</f>
         <v>0.0.2</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43244</v>
       </c>
@@ -1141,18 +1231,27 @@
         <f>IF($B6&gt;0,0,IF(C6&gt;0,0,G5+D6))</f>
         <v>3</v>
       </c>
-      <c r="I6" t="str">
+      <c r="H6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="7"/>
         <v>0.0.3</v>
       </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43333</v>
       </c>
@@ -1177,18 +1276,27 @@
         <f t="shared" ref="G7:G11" si="9">IF($B7&gt;0,0,IF(C7&gt;0,0,G6+D7))</f>
         <v>4</v>
       </c>
-      <c r="I7" t="str">
+      <c r="H7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>0.0.4</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43337</v>
       </c>
@@ -1213,18 +1321,27 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I8" t="str">
+      <c r="H8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>0.0.5</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43338</v>
       </c>
@@ -1249,18 +1366,27 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I9" t="str">
+      <c r="H9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>0.0.6</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43341</v>
       </c>
@@ -1285,18 +1411,27 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I10" t="str">
+      <c r="H10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>0.0.6</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43344</v>
       </c>
@@ -1321,18 +1456,27 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I11" t="str">
+      <c r="H11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>0.0.6</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43352</v>
       </c>
@@ -1351,18 +1495,27 @@
         <f t="shared" ref="G12" si="12">IF($B12&gt;0,0,IF(C12&gt;0,0,G11+D12))</f>
         <v>7</v>
       </c>
-      <c r="I12" t="str">
+      <c r="H12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>0.0.7</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43360</v>
       </c>
@@ -1381,18 +1534,27 @@
         <f t="shared" ref="G13" si="15">IF($B13&gt;0,0,IF(C13&gt;0,0,G12+D13))</f>
         <v>8</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13:I18" si="16">E13&amp;"."&amp;F13&amp;"."&amp;G13</f>
+      <c r="H13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:K18" si="16">E13&amp;"."&amp;F13&amp;"."&amp;G13</f>
         <v>0.0.8</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43362</v>
       </c>
@@ -1408,21 +1570,30 @@
         <f t="shared" ref="G14" si="19">IF($B14&gt;0,0,IF(C14&gt;0,0,G13+D14))</f>
         <v>8</v>
       </c>
-      <c r="I14" t="str">
+      <c r="H14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="16"/>
         <v>0.0.8</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5">
+        <v>4</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="5">
-        <v>4</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" ht="330" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43364</v>
       </c>
@@ -1441,22 +1612,28 @@
         <f t="shared" ref="G15" si="22">IF($B15&gt;0,0,IF(C15&gt;0,0,G14+D15))</f>
         <v>9</v>
       </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="H15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="16"/>
         <v>0.0.9</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="5">
         <v>8</v>
       </c>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43383</v>
       </c>
@@ -1475,21 +1652,27 @@
         <f t="shared" ref="G16" si="25">IF($B16&gt;0,0,IF(C16&gt;0,0,G15+D16))</f>
         <v>10</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="str">
+      <c r="H16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="16"/>
         <v>0.0.10</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43394</v>
       </c>
@@ -1508,18 +1691,27 @@
         <f t="shared" ref="G17:G18" si="28">IF($B17&gt;0,0,IF(C17&gt;0,0,G16+D17))</f>
         <v>10</v>
       </c>
-      <c r="I17" t="str">
+      <c r="H17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="16"/>
         <v>0.0.10</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43406</v>
       </c>
@@ -1538,18 +1730,27 @@
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
-      <c r="I18" t="str">
+      <c r="H18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="16"/>
         <v>0.0.10</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43428</v>
       </c>
@@ -1565,18 +1766,27 @@
         <f t="shared" ref="G19:G26" si="31">IF($B19&gt;0,0,IF(C19&gt;0,0,G18+D19))</f>
         <v>10</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" ref="I19:I26" si="32">E19&amp;"."&amp;F19&amp;"."&amp;G19</f>
+      <c r="H19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K26" si="32">E19&amp;"."&amp;F19&amp;"."&amp;G19</f>
         <v>0.0.10</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43430</v>
       </c>
@@ -1592,18 +1802,27 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="I20" t="str">
+      <c r="H20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43431</v>
       </c>
@@ -1619,18 +1838,27 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="I21" t="str">
+      <c r="H21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43432</v>
       </c>
@@ -1646,18 +1874,27 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="I22" t="str">
+      <c r="H22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="L22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43433</v>
       </c>
@@ -1673,18 +1910,27 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="I23" t="str">
+      <c r="H23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43434</v>
       </c>
@@ -1700,18 +1946,27 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="I24" t="str">
+      <c r="H24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43436</v>
       </c>
@@ -1727,18 +1982,27 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="I25" t="str">
+      <c r="H25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="L25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43440</v>
       </c>
@@ -1757,22 +2021,31 @@
         <f t="shared" si="31"/>
         <v>11</v>
       </c>
-      <c r="I26" t="str">
+      <c r="H26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="32"/>
         <v>0.0.11</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="5">
         <v>2</v>
       </c>
-      <c r="M26">
-        <f>SUM(K5:K26)</f>
+      <c r="O26">
+        <f>SUM(M5:M26)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43466</v>
       </c>
@@ -1791,18 +2064,27 @@
         <f t="shared" ref="G27" si="35">IF($B27&gt;0,0,IF(C27&gt;0,0,G26+D27))</f>
         <v>12</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" ref="I27" si="36">E27&amp;"."&amp;F27&amp;"."&amp;G27</f>
+      <c r="H27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ref="K27" si="36">E27&amp;"."&amp;F27&amp;"."&amp;G27</f>
         <v>0.0.12</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="L27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43480</v>
       </c>
@@ -1821,18 +2103,27 @@
         <f t="shared" ref="G28" si="39">IF($B28&gt;0,0,IF(C28&gt;0,0,G27+D28))</f>
         <v>13</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" ref="I28" si="40">E28&amp;"."&amp;F28&amp;"."&amp;G28</f>
+      <c r="H28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ref="K28" si="40">E28&amp;"."&amp;F28&amp;"."&amp;G28</f>
         <v>0.0.13</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28">
+      <c r="L28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43482</v>
       </c>
@@ -1851,18 +2142,27 @@
         <f t="shared" ref="G29" si="43">IF($B29&gt;0,0,IF(C29&gt;0,0,G28+D29))</f>
         <v>13</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" ref="I29" si="44">E29&amp;"."&amp;F29&amp;"."&amp;G29</f>
+      <c r="H29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" ref="K29" si="44">E29&amp;"."&amp;F29&amp;"."&amp;G29</f>
         <v>0.0.13</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29">
+      <c r="L29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43487</v>
       </c>
@@ -1881,18 +2181,27 @@
         <f t="shared" ref="G30" si="47">IF($B30&gt;0,0,IF(C30&gt;0,0,G29+D30))</f>
         <v>14</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" ref="I30:I37" si="48">E30&amp;"."&amp;F30&amp;"."&amp;G30</f>
+      <c r="H30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K37" si="48">E30&amp;"."&amp;F30&amp;"."&amp;G30</f>
         <v>0.0.14</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
+      <c r="L30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43490</v>
       </c>
@@ -1911,18 +2220,27 @@
         <f t="shared" ref="G31" si="51">IF($B31&gt;0,0,IF(C31&gt;0,0,G30+D31))</f>
         <v>14</v>
       </c>
-      <c r="I31" t="str">
+      <c r="H31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31">
+      <c r="L31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43495</v>
       </c>
@@ -1938,18 +2256,27 @@
         <f t="shared" ref="G32:G35" si="54">IF($B32&gt;0,0,IF(C32&gt;0,0,G31+D32))</f>
         <v>14</v>
       </c>
-      <c r="I32" t="str">
+      <c r="H32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32">
+      <c r="L32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43496</v>
       </c>
@@ -1965,22 +2292,31 @@
         <f t="shared" si="54"/>
         <v>14</v>
       </c>
-      <c r="I33" t="str">
+      <c r="H33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33">
+      <c r="L33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <f>SUM(K27:K33)</f>
+      <c r="O33">
+        <f>SUM(M27:M33)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43498</v>
       </c>
@@ -1996,18 +2332,27 @@
         <f t="shared" si="54"/>
         <v>14</v>
       </c>
-      <c r="I34" t="str">
+      <c r="H34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34">
+      <c r="L34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43509</v>
       </c>
@@ -2023,18 +2368,27 @@
         <f t="shared" si="54"/>
         <v>14</v>
       </c>
-      <c r="I35" t="str">
+      <c r="H35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43510</v>
       </c>
@@ -2052,18 +2406,27 @@
         <f t="shared" ref="G36:G37" si="57">IF($B36&gt;0,0,IF(C36&gt;0,0,G35+D36))</f>
         <v>14</v>
       </c>
-      <c r="I36" t="str">
+      <c r="H36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="6">
+      <c r="L36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43511</v>
       </c>
@@ -2081,18 +2444,27 @@
         <f t="shared" si="57"/>
         <v>14</v>
       </c>
-      <c r="I37" t="str">
+      <c r="H37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="L37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43514</v>
       </c>
@@ -2108,18 +2480,27 @@
         <f t="shared" ref="G38" si="60">IF($B38&gt;0,0,IF(C38&gt;0,0,G37+D38))</f>
         <v>14</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" ref="I38" si="61">E38&amp;"."&amp;F38&amp;"."&amp;G38</f>
+      <c r="H38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38" si="61">E38&amp;"."&amp;F38&amp;"."&amp;G38</f>
         <v>0.0.14</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="L38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43515</v>
       </c>
@@ -2135,18 +2516,27 @@
         <f t="shared" ref="G39" si="64">IF($B39&gt;0,0,IF(C39&gt;0,0,G38+D39))</f>
         <v>14</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" ref="I39" si="65">E39&amp;"."&amp;F39&amp;"."&amp;G39</f>
+      <c r="H39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" ref="K39" si="65">E39&amp;"."&amp;F39&amp;"."&amp;G39</f>
         <v>0.0.14</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="6">
+      <c r="L39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43524</v>
       </c>
@@ -2162,22 +2552,31 @@
         <f t="shared" ref="G40" si="68">IF($B40&gt;0,0,IF(C40&gt;0,0,G39+D40))</f>
         <v>14</v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" ref="I40" si="69">E40&amp;"."&amp;F40&amp;"."&amp;G40</f>
+      <c r="H40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" ref="K40" si="69">E40&amp;"."&amp;F40&amp;"."&amp;G40</f>
         <v>0.0.14</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="6">
+      <c r="L40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="6">
         <v>2</v>
       </c>
-      <c r="M40">
-        <f>SUM(K34:K40)</f>
+      <c r="O40">
+        <f>SUM(M34:M40)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43525</v>
       </c>
@@ -2193,18 +2592,27 @@
         <f t="shared" ref="G41" si="72">IF($B41&gt;0,0,IF(C41&gt;0,0,G40+D41))</f>
         <v>14</v>
       </c>
-      <c r="I41" t="str">
-        <f t="shared" ref="I41" si="73">E41&amp;"."&amp;F41&amp;"."&amp;G41</f>
+      <c r="H41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" ref="K41" si="73">E41&amp;"."&amp;F41&amp;"."&amp;G41</f>
         <v>0.0.14</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="L41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43528</v>
       </c>
@@ -2220,18 +2628,27 @@
         <f t="shared" ref="G42" si="76">IF($B42&gt;0,0,IF(C42&gt;0,0,G41+D42))</f>
         <v>14</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" ref="I42" si="77">E42&amp;"."&amp;F42&amp;"."&amp;G42</f>
+      <c r="H42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" ref="K42" si="77">E42&amp;"."&amp;F42&amp;"."&amp;G42</f>
         <v>0.0.14</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="L42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43529</v>
       </c>
@@ -2247,18 +2664,27 @@
         <f t="shared" ref="G43:G44" si="80">IF($B43&gt;0,0,IF(C43&gt;0,0,G42+D43))</f>
         <v>14</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" ref="I43:I45" si="81">E43&amp;"."&amp;F43&amp;"."&amp;G43</f>
+      <c r="H43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" ref="K43:K45" si="81">E43&amp;"."&amp;F43&amp;"."&amp;G43</f>
         <v>0.0.14</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="6">
+      <c r="L43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43530</v>
       </c>
@@ -2274,18 +2700,27 @@
         <f t="shared" si="80"/>
         <v>14</v>
       </c>
-      <c r="I44" t="str">
+      <c r="H44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="81"/>
         <v>0.0.14</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="6">
+      <c r="L44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43542</v>
       </c>
@@ -2304,18 +2739,27 @@
         <f t="shared" ref="G45" si="84">IF($B45&gt;0,0,IF(C45&gt;0,0,G44+D45))</f>
         <v>15</v>
       </c>
-      <c r="I45" t="str">
+      <c r="H45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="81"/>
         <v>0.0.15</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="L45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43543</v>
       </c>
@@ -2334,18 +2778,27 @@
         <f t="shared" ref="G46" si="87">IF($B46&gt;0,0,IF(C46&gt;0,0,G45+D46))</f>
         <v>16</v>
       </c>
-      <c r="I46" t="str">
-        <f t="shared" ref="I46" si="88">E46&amp;"."&amp;F46&amp;"."&amp;G46</f>
+      <c r="H46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" ref="K46" si="88">E46&amp;"."&amp;F46&amp;"."&amp;G46</f>
         <v>0.0.16</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="L46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43544</v>
       </c>
@@ -2364,18 +2817,27 @@
         <f t="shared" ref="G47" si="91">IF($B47&gt;0,0,IF(C47&gt;0,0,G46+D47))</f>
         <v>17</v>
       </c>
-      <c r="I47" t="str">
-        <f t="shared" ref="I47" si="92">E47&amp;"."&amp;F47&amp;"."&amp;G47</f>
+      <c r="H47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" ref="K47" si="92">E47&amp;"."&amp;F47&amp;"."&amp;G47</f>
         <v>0.0.17</v>
       </c>
-      <c r="J47" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="6">
+      <c r="L47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43547</v>
       </c>
@@ -2394,22 +2856,31 @@
         <f t="shared" ref="G48" si="95">IF($B48&gt;0,0,IF(C48&gt;0,0,G47+D48))</f>
         <v>18</v>
       </c>
-      <c r="I48" t="str">
-        <f t="shared" ref="I48" si="96">E48&amp;"."&amp;F48&amp;"."&amp;G48</f>
+      <c r="H48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" ref="K48" si="96">E48&amp;"."&amp;F48&amp;"."&amp;G48</f>
         <v>0.0.18</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K48" s="6">
+      <c r="L48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="6">
         <v>2</v>
       </c>
-      <c r="M48">
-        <f>SUM(K41:K48)</f>
+      <c r="O48">
+        <f>SUM(M41:M48)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43565</v>
       </c>
@@ -2428,16 +2899,25 @@
         <f t="shared" ref="G49" si="99">IF($B49&gt;0,0,IF(C49&gt;0,0,G48+D49))</f>
         <v>19</v>
       </c>
-      <c r="I49" t="str">
-        <f t="shared" ref="I49" si="100">E49&amp;"."&amp;F49&amp;"."&amp;G49</f>
+      <c r="H49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" ref="K49" si="100">E49&amp;"."&amp;F49&amp;"."&amp;G49</f>
         <v>0.0.19</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="5"/>
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43579</v>
       </c>
@@ -2456,16 +2936,25 @@
         <f t="shared" ref="G50:G51" si="103">IF($B50&gt;0,0,IF(C50&gt;0,0,G49+D50))</f>
         <v>19</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" ref="I50:I51" si="104">E50&amp;"."&amp;F50&amp;"."&amp;G50</f>
+      <c r="H50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" ref="K50:K51" si="104">E50&amp;"."&amp;F50&amp;"."&amp;G50</f>
         <v>0.0.19</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L50" s="5"/>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43580</v>
       </c>
@@ -2484,18 +2973,27 @@
         <f t="shared" si="103"/>
         <v>20</v>
       </c>
-      <c r="I51" t="str">
+      <c r="H51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51" t="str">
         <f t="shared" si="104"/>
         <v>0.0.20</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51">
+      <c r="L51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43581</v>
       </c>
@@ -2514,18 +3012,27 @@
         <f t="shared" ref="G52" si="107">IF($B52&gt;0,0,IF(C52&gt;0,0,G51+D52))</f>
         <v>20</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" ref="I52" si="108">E52&amp;"."&amp;F52&amp;"."&amp;G52</f>
+      <c r="H52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" ref="K52" si="108">E52&amp;"."&amp;F52&amp;"."&amp;G52</f>
         <v>0.0.20</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52">
+      <c r="L52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43583</v>
       </c>
@@ -2544,22 +3051,31 @@
         <f t="shared" ref="G53" si="111">IF($B53&gt;0,0,IF(C53&gt;0,0,G52+D53))</f>
         <v>20</v>
       </c>
-      <c r="I53" t="str">
-        <f t="shared" ref="I53" si="112">E53&amp;"."&amp;F53&amp;"."&amp;G53</f>
+      <c r="H53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" ref="K53" si="112">E53&amp;"."&amp;F53&amp;"."&amp;G53</f>
         <v>0.0.20</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K53">
+      <c r="L53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M53">
         <v>3</v>
       </c>
-      <c r="M53">
-        <f>SUM(K49:K53)</f>
+      <c r="O53">
+        <f>SUM(M49:M53)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43591</v>
       </c>
@@ -2578,18 +3094,27 @@
         <f t="shared" ref="G54:G55" si="115">IF($B54&gt;0,0,IF(C54&gt;0,0,G53+D54))</f>
         <v>20</v>
       </c>
-      <c r="I54" t="str">
-        <f t="shared" ref="I54:I55" si="116">E54&amp;"."&amp;F54&amp;"."&amp;G54</f>
+      <c r="H54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" ref="K54:K55" si="116">E54&amp;"."&amp;F54&amp;"."&amp;G54</f>
         <v>0.0.20</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="L54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43609</v>
       </c>
@@ -2608,18 +3133,27 @@
         <f t="shared" si="115"/>
         <v>20</v>
       </c>
-      <c r="I55" t="str">
+      <c r="H55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" t="str">
         <f t="shared" si="116"/>
         <v>0.0.20</v>
       </c>
-      <c r="J55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K55">
+      <c r="L55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43611</v>
       </c>
@@ -2638,19 +3172,27 @@
         <f t="shared" ref="G56:G57" si="119">IF($B56&gt;0,0,IF(C56&gt;0,0,G55+D56))</f>
         <v>21</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7" t="str">
-        <f t="shared" ref="I56:I57" si="120">E56&amp;"."&amp;F56&amp;"."&amp;G56</f>
+      <c r="H56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" ref="K56:K57" si="120">E56&amp;"."&amp;F56&amp;"."&amp;G56</f>
         <v>0.0.21</v>
       </c>
-      <c r="J56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K56">
+      <c r="L56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>43614</v>
       </c>
@@ -2669,19 +3211,27 @@
         <f t="shared" si="119"/>
         <v>21</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7" t="str">
+      <c r="H57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57" s="7" t="str">
         <f t="shared" si="120"/>
         <v>0.0.21</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57">
+      <c r="L57" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>43615</v>
       </c>
@@ -2700,23 +3250,31 @@
         <f t="shared" ref="G58" si="123">IF($B58&gt;0,0,IF(C58&gt;0,0,G57+D58))</f>
         <v>21</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7" t="str">
-        <f t="shared" ref="I58" si="124">E58&amp;"."&amp;F58&amp;"."&amp;G58</f>
+      <c r="H58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f t="shared" ref="K58" si="124">E58&amp;"."&amp;F58&amp;"."&amp;G58</f>
         <v>0.0.21</v>
       </c>
-      <c r="J58" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K58">
+      <c r="L58" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M58">
         <v>3</v>
       </c>
-      <c r="M58">
-        <f>SUM(K54:K58)</f>
+      <c r="O58">
+        <f>SUM(M54:M58)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>43618</v>
       </c>
@@ -2735,19 +3293,27 @@
         <f t="shared" ref="G59" si="127">IF($B59&gt;0,0,IF(C59&gt;0,0,G58+D59))</f>
         <v>22</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7" t="str">
-        <f t="shared" ref="I59" si="128">E59&amp;"."&amp;F59&amp;"."&amp;G59</f>
+      <c r="H59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f t="shared" ref="K59" si="128">E59&amp;"."&amp;F59&amp;"."&amp;G59</f>
         <v>0.0.22</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43620</v>
       </c>
@@ -2768,19 +3334,27 @@
         <f t="shared" ref="G60" si="131">IF($B60&gt;0,0,IF(C60&gt;0,0,G59+D60))</f>
         <v>23</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7" t="str">
-        <f t="shared" ref="I60" si="132">E60&amp;"."&amp;F60&amp;"."&amp;G60</f>
+      <c r="H60" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" ref="K60" si="132">E60&amp;"."&amp;F60&amp;"."&amp;G60</f>
         <v>0.0.23</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+      <c r="L60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="315" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43629</v>
       </c>
@@ -2799,19 +3373,27 @@
         <f t="shared" ref="G61" si="135">IF($B61&gt;0,0,IF(C61&gt;0,0,G60+D61))</f>
         <v>24</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7" t="str">
-        <f t="shared" ref="I61" si="136">E61&amp;"."&amp;F61&amp;"."&amp;G61</f>
+      <c r="H61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" ref="K61" si="136">E61&amp;"."&amp;F61&amp;"."&amp;G61</f>
         <v>0.0.24</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K61">
+      <c r="L61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>43634</v>
       </c>
@@ -2832,19 +3414,27 @@
         <f t="shared" ref="G62" si="139">IF($B62&gt;0,0,IF(C62&gt;0,0,G61+D62))</f>
         <v>26</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7" t="str">
-        <f t="shared" ref="I62" si="140">E62&amp;"."&amp;F62&amp;"."&amp;G62</f>
+      <c r="H62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" ref="K62" si="140">E62&amp;"."&amp;F62&amp;"."&amp;G62</f>
         <v>0.0.26</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K62">
+      <c r="L62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>43640</v>
       </c>
@@ -2863,19 +3453,27 @@
         <f t="shared" ref="G63" si="143">IF($B63&gt;0,0,IF(C63&gt;0,0,G62+D63))</f>
         <v>26</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7" t="str">
-        <f t="shared" ref="I63" si="144">E63&amp;"."&amp;F63&amp;"."&amp;G63</f>
+      <c r="H63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" ref="K63" si="144">E63&amp;"."&amp;F63&amp;"."&amp;G63</f>
         <v>0.0.26</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K63">
+      <c r="L63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>43641</v>
       </c>
@@ -2896,19 +3494,27 @@
         <f t="shared" ref="G64" si="147">IF($B64&gt;0,0,IF(C64&gt;0,0,G63+D64))</f>
         <v>26</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7" t="str">
-        <f t="shared" ref="I64" si="148">E64&amp;"."&amp;F64&amp;"."&amp;G64</f>
+      <c r="H64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" ref="K64" si="148">E64&amp;"."&amp;F64&amp;"."&amp;G64</f>
         <v>0.0.26</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="L64" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>43642</v>
       </c>
@@ -2929,19 +3535,27 @@
         <f t="shared" ref="G65" si="151">IF($B65&gt;0,0,IF(C65&gt;0,0,G64+D65))</f>
         <v>26</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7" t="str">
-        <f t="shared" ref="I65" si="152">E65&amp;"."&amp;F65&amp;"."&amp;G65</f>
+      <c r="H65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K65" s="7" t="str">
+        <f t="shared" ref="K65" si="152">E65&amp;"."&amp;F65&amp;"."&amp;G65</f>
         <v>0.0.26</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K65">
+      <c r="L65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>43643</v>
       </c>
@@ -2962,19 +3576,27 @@
         <f t="shared" ref="G66" si="155">IF($B66&gt;0,0,IF(C66&gt;0,0,G65+D66))</f>
         <v>27</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7" t="str">
-        <f t="shared" ref="I66" si="156">E66&amp;"."&amp;F66&amp;"."&amp;G66</f>
+      <c r="H66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="7" t="str">
+        <f t="shared" ref="K66" si="156">E66&amp;"."&amp;F66&amp;"."&amp;G66</f>
         <v>0.0.27</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K66">
+      <c r="L66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>43645</v>
       </c>
@@ -2993,19 +3615,27 @@
         <f t="shared" ref="G67" si="159">IF($B67&gt;0,0,IF(C67&gt;0,0,G66+D67))</f>
         <v>28</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7" t="str">
-        <f t="shared" ref="I67" si="160">E67&amp;"."&amp;F67&amp;"."&amp;G67</f>
+      <c r="H67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K67" s="7" t="str">
+        <f t="shared" ref="K67" si="160">E67&amp;"."&amp;F67&amp;"."&amp;G67</f>
         <v>0.0.28</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K67">
+      <c r="L67" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M67">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>43646</v>
       </c>
@@ -3024,29 +3654,259 @@
         <f t="shared" ref="G68" si="163">IF($B68&gt;0,0,IF(C68&gt;0,0,G67+D68))</f>
         <v>29</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7" t="str">
-        <f t="shared" ref="I68" si="164">E68&amp;"."&amp;F68&amp;"."&amp;G68</f>
+      <c r="H68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68" s="7" t="str">
+        <f t="shared" ref="K68" si="164">E68&amp;"."&amp;F68&amp;"."&amp;G68</f>
         <v>0.0.29</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K68">
+      <c r="L68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M68">
         <v>2</v>
       </c>
+      <c r="O68">
+        <f>SUM(M59:M68)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>43648</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" ref="E69" si="165">E68+B69</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" ref="F69" si="166">IF($B69&gt;0,0,F68+C69)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" ref="G69" si="167">IF($B69&gt;0,0,IF(C69&gt;0,0,G68+D69))</f>
+        <v>30</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K69" s="7" t="str">
+        <f t="shared" ref="K69" si="168">E69&amp;"."&amp;F69&amp;"."&amp;G69</f>
+        <v>0.0.30</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>43650</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" ref="E70" si="169">E69+B70</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" ref="F70" si="170">IF($B70&gt;0,0,F69+C70)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" ref="G70" si="171">IF($B70&gt;0,0,IF(C70&gt;0,0,G69+D70))</f>
+        <v>31</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="7" t="str">
+        <f t="shared" ref="K70" si="172">E70&amp;"."&amp;F70&amp;"."&amp;G70</f>
+        <v>0.0.31</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>43651</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" ref="E71" si="173">E70+B71</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" ref="F71" si="174">IF($B71&gt;0,0,F70+C71)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" ref="G71" si="175">IF($B71&gt;0,0,IF(C71&gt;0,0,G70+D71))</f>
+        <v>32</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K71" s="7" t="str">
+        <f t="shared" ref="K71" si="176">E71&amp;"."&amp;F71&amp;"."&amp;G71</f>
+        <v>0.0.32</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>43653</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" ref="E72" si="177">E71+B72</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" ref="F72" si="178">IF($B72&gt;0,0,F71+C72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" ref="G72" si="179">IF($B72&gt;0,0,IF(C72&gt;0,0,G71+D72))</f>
+        <v>33</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7" t="str">
+        <f t="shared" ref="K72" si="180">E72&amp;"."&amp;F72&amp;"."&amp;G72</f>
+        <v>0.0.33</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>43656</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" ref="E73" si="181">E72+B73</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" ref="F73" si="182">IF($B73&gt;0,0,F72+C73)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" ref="G73" si="183">IF($B73&gt;0,0,IF(C73&gt;0,0,G72+D73))</f>
+        <v>34</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K73" s="7" t="str">
+        <f t="shared" ref="K73:K74" si="184">E73&amp;"."&amp;F73&amp;"."&amp;G73</f>
+        <v>0.0.34</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>43664</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" ref="E74" si="185">E73+B74</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" ref="F74" si="186">IF($B74&gt;0,0,F73+C74)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" ref="G74" si="187">IF($B74&gt;0,0,IF(C74&gt;0,0,G73+D74))</f>
+        <v>35</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7" t="str">
+        <f t="shared" si="184"/>
+        <v>0.0.35</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="11">
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Bank/bank/bankUpdateLog.xlsx
+++ b/Bank/bank/bankUpdateLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -479,6 +479,55 @@
 TimeDepositManager.php
 fixed: GetTimeDepositFutureRecords() function
 if no exchange rate record effective date is greater or equal to the td effective date, find the most recent past record</t>
+  </si>
+  <si>
+    <t>2createStudio/shuttle-export
+https://github.com/2createStudio/shuttle-export/tree/namespaced
+fixed: exporting records that contain utf8 content</t>
+  </si>
+  <si>
+    <t>Report - Deposit Balance Summary page
+add: html, js file, report criteria on screen</t>
+  </si>
+  <si>
+    <t>time-deposit-entry.js
+fixed: Rate validation used incorrect property, rename to DepositRate
+add: Time Deposit columns Purpose, NoOfDays
+Purpose could be Investment - for earn money
+Purpose could be Daily Spending - for consume, e.g tax, property management fee
+update: PhpSpreadsheetManager.php, MergeDataSet(), CopyRange, CopyRows</t>
+  </si>
+  <si>
+    <t>PhpSpreadsheetManager.php
+update: RemovePrintedTemplateRows(), MergeDataRows(), MergeDataRow()
+fixed: only remove printed template row on save</t>
+  </si>
+  <si>
+    <t>PhpSpreadsheetManager.php
+record the template row position and the position to be merged for next record
+add: MergeCellExpression(), PrintGroupInterval()
+update: MergeDataRow()</t>
+  </si>
+  <si>
+    <t>PhpSpreadsheetManager.php
+update: update formula reference in CopyRows()</t>
+  </si>
+  <si>
+    <t>remove phpoffice/phpexcel 1.8.1
+upgrade phpoffice/phpspreadsheet from 1.6.0 to 1.8.2
+upgrade mpdf/mpdf from 6.1.0 to 7.*
+upgrade tecnickcom/tcpdf from 6.2.12 to 6.2.26
+upgrade dompdf/dompdf from 0.6.2 to 0.8.*
+require "phpunit/phpunit": "^4.8"
+PhpSpreadsheetManager.php
+update: save as xlsx, xls, pdf
+br01depositbalancesummary.php
+add: output format: xls, pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add: PhpSpreadsheetManager.php
+update: metadata in ExcelManager.php
+update: bu01master.php, </t>
   </si>
 </sst>
 </file>
@@ -983,13 +1032,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomRight" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,8 +3929,11 @@
         <f t="shared" ref="G74" si="187">IF($B74&gt;0,0,IF(C74&gt;0,0,G73+D74))</f>
         <v>35</v>
       </c>
-      <c r="H74" s="7">
-        <v>0</v>
+      <c r="H74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="K74" s="7" t="str">
         <f t="shared" si="184"/>
@@ -3892,6 +3944,270 @@
       </c>
       <c r="M74">
         <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>43670</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" ref="E75" si="188">E74+B75</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" ref="F75" si="189">IF($B75&gt;0,0,F74+C75)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" ref="G75" si="190">IF($B75&gt;0,0,IF(C75&gt;0,0,G74+D75))</f>
+        <v>36</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K75" s="7" t="str">
+        <f t="shared" ref="K75:K76" si="191">E75&amp;"."&amp;F75&amp;"."&amp;G75</f>
+        <v>0.0.36</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M75" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>43671</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" ref="E76" si="192">E75+B76</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" ref="F76" si="193">IF($B76&gt;0,0,F75+C76)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" ref="G76" si="194">IF($B76&gt;0,0,IF(C76&gt;0,0,G75+D76))</f>
+        <v>36</v>
+      </c>
+      <c r="K76" s="7" t="str">
+        <f t="shared" si="191"/>
+        <v>0.0.36</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>43673</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" ref="E77" si="195">E76+B77</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" ref="F77" si="196">IF($B77&gt;0,0,F76+C77)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" ref="G77" si="197">IF($B77&gt;0,0,IF(C77&gt;0,0,G76+D77))</f>
+        <v>36</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7" t="str">
+        <f t="shared" ref="K77" si="198">E77&amp;"."&amp;F77&amp;"."&amp;G77</f>
+        <v>0.0.36</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>43674</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7">
+        <f t="shared" ref="E78" si="199">E77+B78</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" ref="F78" si="200">IF($B78&gt;0,0,F77+C78)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <f t="shared" ref="G78" si="201">IF($B78&gt;0,0,IF(C78&gt;0,0,G77+D78))</f>
+        <v>37</v>
+      </c>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7" t="str">
+        <f t="shared" ref="K78" si="202">E78&amp;"."&amp;F78&amp;"."&amp;G78</f>
+        <v>0.0.37</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>43675</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7">
+        <f t="shared" ref="E79" si="203">E78+B79</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" ref="F79" si="204">IF($B79&gt;0,0,F78+C79)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" ref="G79" si="205">IF($B79&gt;0,0,IF(C79&gt;0,0,G78+D79))</f>
+        <v>38</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7" t="str">
+        <f t="shared" ref="K79" si="206">E79&amp;"."&amp;F79&amp;"."&amp;G79</f>
+        <v>0.0.38</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>43679</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
+        <f t="shared" ref="E80" si="207">E79+B80</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <f t="shared" ref="F80" si="208">IF($B80&gt;0,0,F79+C80)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" ref="G80" si="209">IF($B80&gt;0,0,IF(C80&gt;0,0,G79+D80))</f>
+        <v>39</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7" t="str">
+        <f t="shared" ref="K80" si="210">E80&amp;"."&amp;F80&amp;"."&amp;G80</f>
+        <v>0.0.39</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>43680</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7">
+        <f t="shared" ref="E81" si="211">E80+B81</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <f t="shared" ref="F81" si="212">IF($B81&gt;0,0,F80+C81)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" ref="G81" si="213">IF($B81&gt;0,0,IF(C81&gt;0,0,G80+D81))</f>
+        <v>40</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7" t="str">
+        <f t="shared" ref="K81" si="214">E81&amp;"."&amp;F81&amp;"."&amp;G81</f>
+        <v>0.0.40</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>43681</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" ref="E82" si="215">E81+B82</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <f t="shared" ref="F82" si="216">IF($B82&gt;0,0,F81+C82)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <f t="shared" ref="G82" si="217">IF($B82&gt;0,0,IF(C82&gt;0,0,G81+D82))</f>
+        <v>41</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7" t="str">
+        <f t="shared" ref="K82" si="218">E82&amp;"."&amp;F82&amp;"."&amp;G82</f>
+        <v>0.0.41</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bank/bank/bankUpdateLog.xlsx
+++ b/Bank/bank/bankUpdateLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -528,6 +528,38 @@
     <t xml:space="preserve">add: PhpSpreadsheetManager.php
 update: metadata in ExcelManager.php
 update: bu01master.php, </t>
+  </si>
+  <si>
+    <t>PhpSpreadsheetManager.php
+fixed: PrintGroupInterval(), exclude indicator from array which not exists in the excel template
+br01depositbalancesummary.php, br02arrangeddeposit.php
+fixed: don't generate empty report if no records selected based on the report criteria
+add: br03matureddeposit.php</t>
+  </si>
+  <si>
+    <t>Total working hours of 2018</t>
+  </si>
+  <si>
+    <t>Total working hours of 2017</t>
+  </si>
+  <si>
+    <t>fixed: restrict the max length as 3 in Branch Code field
+fixed: Bank Account Entry, no mandatory fields validation
+fixed: not sustainable order of saving records display on sometimes</t>
+  </si>
+  <si>
+    <t>Saving, Assets, Liabilities, Entry
+fixed: In Create Assets / Liabilities Form, no mandatory fields validation
+fixed: In Saving tab, , available balance negative validation
+fixed: Data created, Data updated, Data deleted meesage overwrited by the refresh the assets and liabilities response, add processed_message in bi36AssetsLiabilities.php 
+Report - Arranged Deposit, Report - Matured Deposit
+add: 4 Quick Dates buttons, [Last 7 days] [Last 30 days] [This month] [Last month]
+update: Report - Matured Deposit, default [This month] as date range
+update: Report - Arranged Deposit, default [Last 30 days] as date range
+update: increase to 20 digit before the decimal point for
+assetsliabilities - amount
+bankaccountbalance - AvailableBalance
+timedeposittran - Principal, TotalCredit, AdjustedCredit, ActualCredit</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1064,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M88" sqref="M88"/>
+      <selection pane="bottomRight" activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,6 +1237,9 @@
       <c r="M4" s="5">
         <v>2</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="O4" s="7">
         <f>SUM(M3:M4)</f>
         <v>10</v>
@@ -2088,6 +2123,9 @@
       </c>
       <c r="M26" s="5">
         <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>98</v>
       </c>
       <c r="O26">
         <f>SUM(M5:M26)</f>
@@ -4107,6 +4145,10 @@
       <c r="M79">
         <v>3</v>
       </c>
+      <c r="O79" s="7">
+        <f>SUM(M69:M79)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -4198,7 +4240,12 @@
       <c r="H82" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J82" s="7"/>
+      <c r="I82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="K82" s="7" t="str">
         <f t="shared" ref="K82" si="218">E82&amp;"."&amp;F82&amp;"."&amp;G82</f>
         <v>0.0.41</v>
@@ -4207,6 +4254,111 @@
         <v>95</v>
       </c>
       <c r="M82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>43684</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" ref="E83" si="219">E82+B83</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <f t="shared" ref="F83" si="220">IF($B83&gt;0,0,F82+C83)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" ref="G83" si="221">IF($B83&gt;0,0,IF(C83&gt;0,0,G82+D83))</f>
+        <v>42</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K83" s="7" t="str">
+        <f t="shared" ref="K83" si="222">E83&amp;"."&amp;F83&amp;"."&amp;G83</f>
+        <v>0.0.42</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>43686</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
+        <f t="shared" ref="E84:E85" si="223">E83+B84</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" ref="F84:F85" si="224">IF($B84&gt;0,0,F83+C84)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" ref="G84:G85" si="225">IF($B84&gt;0,0,IF(C84&gt;0,0,G83+D84))</f>
+        <v>43</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7" t="str">
+        <f t="shared" ref="K84:K85" si="226">E84&amp;"."&amp;F84&amp;"."&amp;G84</f>
+        <v>0.0.43</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>43687</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="223"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="225"/>
+        <v>44</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K85" s="7" t="str">
+        <f t="shared" si="226"/>
+        <v>0.0.44</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M85">
         <v>4</v>
       </c>
     </row>

--- a/Bank/bank/bankUpdateLog.xlsx
+++ b/Bank/bank/bankUpdateLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -560,6 +560,120 @@
 assetsliabilities - amount
 bankaccountbalance - AvailableBalance
 timedeposittran - Principal, TotalCredit, AdjustedCredit, ActualCredit</t>
+  </si>
+  <si>
+    <t>Currency Maintenance
+fixed: insert Bank Account Currency records when enabled currency, update Bank Account Currency status to disable when disabled currency
+fixed: Home page URL linked to the old environment</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction
+add: create form tab, entry Be37ForexTran
+add: search tab, inquiry Bi50ForexTran
+update: Add button to clear selected currency in search criteria</t>
+  </si>
+  <si>
+    <t>add: feature idea - Actual changes of Forex series orders
+add: feature idea - Evalutaion of the timing of Forex Orders</t>
+  </si>
+  <si>
+    <t>investigate: how to store record linkage in database
+- Directed Acyclic Graphs (DAG)
+- Adjacency List
+- Path Enumeration (Materialized Graph or Lineage Column)
+- Nested Sets
+- Closure Table (Bridge Table)</t>
+  </si>
+  <si>
+    <t>update: in report and inquiry criteria. Add button to clear selected currency. A undo method to unselect the specified currency. No currency specified means all currency in report and inquiry process.
+4 pages, include, update html, js, php
+Bi46timedeposit, br01depositbalancesummary, br02arrangeddeposit, br03matureddeposit
+investigate: MySQL for select in "Path Enumeration", include
+- get all series top ancestor
+- find unarchive series top ancestor
+- get the childs of specified id
+- get the parents of specified id
+add: bi51forextranseries.php</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction
+update: "Forex Series" tab, "Actual changes of Forex series orders" table visualization
+- draw table in month view
+- present the series path
+- calculate the series earnings / deductions</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction - "Forex Series" tab
+fixed: bi51forextranseries.php, exclude the series if any descendant out of the criteria date range</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction - "Forex Series" tab
+add: display series nodes breakdown 
+update: quick dates, last 3 months, last 6 months, last 12 months
+update: year row as the first row, 2nd row content shows month only, shrink the table size
+update: view mode, Compact | Hybrid | Expand Series Details
+update: in default, hide all series details, click series full path row to toggle the details visibility
+update: font-awesome from 5.2.0 to 5.10.2</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction - "Forex Series" tab
+add: group month amount, series subtotal in total row</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction - "Forex Series" tab
+add: two columns "Current value" and "Earning / Deduction"
+update: remove color in "Series total" column for Unarchived series path
+update: total Current value, total earning or deduction</t>
+  </si>
+  <si>
+    <t>Foreign Exchange Transaction - "Forex Series" tab
+fixed: update data-series-first-row status in ChangeViewToCompact(), ChangeViewToExpand()
+developing: bi52forextranseries.php for edit series path in Forex Entry</t>
+  </si>
+  <si>
+    <t>br03matureddeposit.php
+fixed: using the incorrect excel name and excel title
+fixed: missing the br03matureddeposit.xlsx report template, copy the br02arrangeddeposit.xlsx and update the header</t>
+  </si>
+  <si>
+    <t>view-calendar.js
+fixed: calendar trigger twice that make the loading modal always on top</t>
+  </si>
+  <si>
+    <t>not performed health check, the updated dependency used in direct import instead of using from autoload</t>
+  </si>
+  <si>
+    <t>ExcelManager.php 
+fixed: PrepareExportingData(), datetime format in PHP should be "Y-m-d H:i:s" instead of using "Y-m-d hh:mm:ss"
+add: "Import Export Bank Account Balance" page
+import-export-bank-account-balance.js
+import-export-bank-account-balance.html
+bu07bankaccountbalance.php</t>
+  </si>
+  <si>
+    <t>committed in SVN on Mar 23</t>
+  </si>
+  <si>
+    <t>update: github author URL</t>
+  </si>
+  <si>
+    <t>committed in SVN on June 4</t>
+  </si>
+  <si>
+    <t>update composer.json
+remove phpoffice/phpexcel
+update phpoffice/phpword from 0.13.0 to 0.17.0
+update phpoffice/phpspreadsheet from 1.6.0 to 1.8.2</t>
+  </si>
+  <si>
+    <t>upgrade: PHP from 5.6.37 to PHP 7.4.6
+update: phpoffice/phpspreadsheet from 1.8.2 to 1.13.0
+update: mpdf/mpdf from 7.* to 8.*
+update: model/ExcelManager.php
+update: model/PhpSpreadsheetManager.php
+project renamed to Pie-mini System
+update: bank/index.html
+update: bank/navigation-menu.html</t>
   </si>
 </sst>
 </file>
@@ -1064,25 +1178,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L88" sqref="L88"/>
+      <selection pane="bottomRight" activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="4" customWidth="1"/>
     <col min="8" max="9" width="3.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="77.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1179,9 +1293,7 @@
       <c r="I3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J3" s="7"/>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K12" si="0">E3&amp;"."&amp;F3&amp;"."&amp;G3</f>
         <v>0.0.1</v>
@@ -1224,9 +1336,7 @@
       <c r="I4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>0.0.1</v>
@@ -1276,9 +1386,7 @@
       <c r="I5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" t="str">
         <f t="shared" ref="K5:K6" si="7">E5&amp;"."&amp;F5&amp;"."&amp;G5</f>
         <v>0.0.2</v>
@@ -1321,9 +1429,7 @@
       <c r="I6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J6" s="7"/>
       <c r="K6" t="str">
         <f t="shared" si="7"/>
         <v>0.0.3</v>
@@ -1624,9 +1730,7 @@
       <c r="I13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J13" s="7"/>
       <c r="K13" t="str">
         <f t="shared" ref="K13:K18" si="16">E13&amp;"."&amp;F13&amp;"."&amp;G13</f>
         <v>0.0.8</v>
@@ -1702,9 +1806,7 @@
       <c r="I15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J15" s="7"/>
       <c r="K15" t="str">
         <f t="shared" si="16"/>
         <v>0.0.9</v>
@@ -1742,9 +1844,7 @@
       <c r="I16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J16" s="7"/>
       <c r="K16" t="str">
         <f t="shared" si="16"/>
         <v>0.0.10</v>
@@ -1781,9 +1881,7 @@
       <c r="I17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J17" s="7"/>
       <c r="K17" t="str">
         <f t="shared" si="16"/>
         <v>0.0.10</v>
@@ -1820,9 +1918,7 @@
       <c r="I18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J18" s="7"/>
       <c r="K18" t="str">
         <f t="shared" si="16"/>
         <v>0.0.10</v>
@@ -1856,9 +1952,7 @@
       <c r="I19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" t="str">
         <f t="shared" ref="K19:K26" si="32">E19&amp;"."&amp;F19&amp;"."&amp;G19</f>
         <v>0.0.10</v>
@@ -1892,9 +1986,7 @@
       <c r="I20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J20" s="7"/>
       <c r="K20" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
@@ -1928,9 +2020,7 @@
       <c r="I21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J21" s="7"/>
       <c r="K21" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
@@ -1964,9 +2054,7 @@
       <c r="I22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J22" s="7"/>
       <c r="K22" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
@@ -2000,9 +2088,7 @@
       <c r="I23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
@@ -2036,9 +2122,7 @@
       <c r="I24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J24" s="7"/>
       <c r="K24" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
@@ -2072,9 +2156,7 @@
       <c r="I25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J25" s="7"/>
       <c r="K25" t="str">
         <f t="shared" si="32"/>
         <v>0.0.10</v>
@@ -2111,9 +2193,7 @@
       <c r="I26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J26" s="7"/>
       <c r="K26" t="str">
         <f t="shared" si="32"/>
         <v>0.0.11</v>
@@ -2157,9 +2237,7 @@
       <c r="I27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J27" s="7"/>
       <c r="K27" t="str">
         <f t="shared" ref="K27" si="36">E27&amp;"."&amp;F27&amp;"."&amp;G27</f>
         <v>0.0.12</v>
@@ -2196,9 +2274,7 @@
       <c r="I28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J28" s="7"/>
       <c r="K28" t="str">
         <f t="shared" ref="K28" si="40">E28&amp;"."&amp;F28&amp;"."&amp;G28</f>
         <v>0.0.13</v>
@@ -2235,9 +2311,7 @@
       <c r="I29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J29" s="7"/>
       <c r="K29" t="str">
         <f t="shared" ref="K29" si="44">E29&amp;"."&amp;F29&amp;"."&amp;G29</f>
         <v>0.0.13</v>
@@ -2274,9 +2348,7 @@
       <c r="I30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J30" s="7"/>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="48">E30&amp;"."&amp;F30&amp;"."&amp;G30</f>
         <v>0.0.14</v>
@@ -2313,9 +2385,7 @@
       <c r="I31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J31" s="7"/>
       <c r="K31" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2349,9 +2419,7 @@
       <c r="I32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J32" s="7"/>
       <c r="K32" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2385,9 +2453,7 @@
       <c r="I33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J33" s="7"/>
       <c r="K33" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2425,9 +2491,7 @@
       <c r="I34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J34" s="7"/>
       <c r="K34" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2461,9 +2525,7 @@
       <c r="I35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J35" s="7"/>
       <c r="K35" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2499,9 +2561,7 @@
       <c r="I36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J36" s="7"/>
       <c r="K36" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2537,9 +2597,7 @@
       <c r="I37" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J37" s="7"/>
       <c r="K37" t="str">
         <f t="shared" si="48"/>
         <v>0.0.14</v>
@@ -2573,9 +2631,7 @@
       <c r="I38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J38" s="7"/>
       <c r="K38" t="str">
         <f t="shared" ref="K38" si="61">E38&amp;"."&amp;F38&amp;"."&amp;G38</f>
         <v>0.0.14</v>
@@ -2609,9 +2665,7 @@
       <c r="I39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J39" s="7"/>
       <c r="K39" t="str">
         <f t="shared" ref="K39" si="65">E39&amp;"."&amp;F39&amp;"."&amp;G39</f>
         <v>0.0.14</v>
@@ -2645,9 +2699,7 @@
       <c r="I40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J40" s="7"/>
       <c r="K40" t="str">
         <f t="shared" ref="K40" si="69">E40&amp;"."&amp;F40&amp;"."&amp;G40</f>
         <v>0.0.14</v>
@@ -2685,9 +2737,7 @@
       <c r="I41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J41" s="7"/>
       <c r="K41" t="str">
         <f t="shared" ref="K41" si="73">E41&amp;"."&amp;F41&amp;"."&amp;G41</f>
         <v>0.0.14</v>
@@ -2721,9 +2771,7 @@
       <c r="I42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J42" s="7"/>
       <c r="K42" t="str">
         <f t="shared" ref="K42" si="77">E42&amp;"."&amp;F42&amp;"."&amp;G42</f>
         <v>0.0.14</v>
@@ -2757,9 +2805,7 @@
       <c r="I43" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J43" s="7"/>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K45" si="81">E43&amp;"."&amp;F43&amp;"."&amp;G43</f>
         <v>0.0.14</v>
@@ -2793,9 +2839,7 @@
       <c r="I44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J44" s="7"/>
       <c r="K44" t="str">
         <f t="shared" si="81"/>
         <v>0.0.14</v>
@@ -2832,9 +2876,7 @@
       <c r="I45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J45" s="7"/>
       <c r="K45" t="str">
         <f t="shared" si="81"/>
         <v>0.0.15</v>
@@ -2871,9 +2913,7 @@
       <c r="I46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J46" s="7"/>
       <c r="K46" t="str">
         <f t="shared" ref="K46" si="88">E46&amp;"."&amp;F46&amp;"."&amp;G46</f>
         <v>0.0.16</v>
@@ -2910,9 +2950,7 @@
       <c r="I47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J47" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J47" s="7"/>
       <c r="K47" t="str">
         <f t="shared" ref="K47" si="92">E47&amp;"."&amp;F47&amp;"."&amp;G47</f>
         <v>0.0.17</v>
@@ -2949,9 +2987,7 @@
       <c r="I48" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J48" s="7"/>
       <c r="K48" t="str">
         <f t="shared" ref="K48" si="96">E48&amp;"."&amp;F48&amp;"."&amp;G48</f>
         <v>0.0.18</v>
@@ -2992,9 +3028,7 @@
       <c r="I49" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J49" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J49" s="7"/>
       <c r="K49" t="str">
         <f t="shared" ref="K49" si="100">E49&amp;"."&amp;F49&amp;"."&amp;G49</f>
         <v>0.0.19</v>
@@ -3066,9 +3100,7 @@
       <c r="I51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J51" s="7"/>
       <c r="K51" t="str">
         <f t="shared" si="104"/>
         <v>0.0.20</v>
@@ -3105,9 +3137,7 @@
       <c r="I52" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J52" s="7"/>
       <c r="K52" t="str">
         <f t="shared" ref="K52" si="108">E52&amp;"."&amp;F52&amp;"."&amp;G52</f>
         <v>0.0.20</v>
@@ -3144,11 +3174,9 @@
       <c r="I53" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J53" s="7"/>
       <c r="K53" t="str">
-        <f t="shared" ref="K53" si="112">E53&amp;"."&amp;F53&amp;"."&amp;G53</f>
+        <f t="shared" ref="K53:K54" si="112">E53&amp;"."&amp;F53&amp;"."&amp;G53</f>
         <v>0.0.20</v>
       </c>
       <c r="L53" s="5" t="s">
@@ -3157,184 +3185,169 @@
       <c r="M53">
         <v>3</v>
       </c>
-      <c r="O53">
-        <f>SUM(M49:M53)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    </row>
+    <row r="54" spans="1:15" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>43585</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" ref="E54" si="113">E53+B54</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" ref="F54" si="114">IF($B54&gt;0,0,F53+C54)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" ref="G54" si="115">IF($B54&gt;0,0,IF(C54&gt;0,0,G53+D54))</f>
+        <v>20</v>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f t="shared" si="112"/>
+        <v>0.0.20</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M54" s="7">
+        <v>6</v>
+      </c>
+      <c r="O54">
+        <f>SUM(M49:M54)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>43591</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ref="E54:E55" si="113">E53+B54</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f t="shared" ref="F54:F55" si="114">IF($B54&gt;0,0,F53+C54)</f>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f t="shared" ref="G54:G55" si="115">IF($B54&gt;0,0,IF(C54&gt;0,0,G53+D54))</f>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>E53+B55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>IF($B55&gt;0,0,F53+C55)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>IF($B55&gt;0,0,IF(C55&gt;0,0,G53+D55))</f>
         <v>20</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" ref="K54:K55" si="116">E54&amp;"."&amp;F54&amp;"."&amp;G54</f>
+      <c r="H55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K56" si="116">E55&amp;"."&amp;F55&amp;"."&amp;G55</f>
         <v>0.0.20</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>43609</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="113"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="115"/>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56" si="117">E55+B56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="118">IF($B56&gt;0,0,F55+C56)</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56" si="119">IF($B56&gt;0,0,IF(C56&gt;0,0,G55+D56))</f>
         <v>20</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K55" t="str">
+      <c r="H56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" t="str">
         <f t="shared" si="116"/>
         <v>0.0.20</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="L56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M55">
+      <c r="M56">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>43611</v>
       </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7">
-        <f t="shared" ref="E56:E57" si="117">E55+B56</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <f t="shared" ref="F56:F57" si="118">IF($B56&gt;0,0,F55+C56)</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <f t="shared" ref="G56:G57" si="119">IF($B56&gt;0,0,IF(C56&gt;0,0,G55+D56))</f>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" ref="E57:E58" si="120">E56+B57</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" ref="F57:F58" si="121">IF($B57&gt;0,0,F56+C57)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" ref="G57:G58" si="122">IF($B57&gt;0,0,IF(C57&gt;0,0,G56+D57))</f>
         <v>21</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K56" s="7" t="str">
-        <f t="shared" ref="K56:K57" si="120">E56&amp;"."&amp;F56&amp;"."&amp;G56</f>
+      <c r="H57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7" t="str">
+        <f t="shared" ref="K57:K58" si="123">E57&amp;"."&amp;F57&amp;"."&amp;G57</f>
         <v>0.0.21</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M56">
+      <c r="M57">
         <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>43614</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0</v>
-      </c>
-      <c r="E57" s="7">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <f t="shared" si="119"/>
-        <v>21</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" s="7" t="str">
-        <f t="shared" si="120"/>
-        <v>0.0.21</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M57">
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>43615</v>
-      </c>
-      <c r="D58">
+        <v>43614</v>
+      </c>
+      <c r="D58" s="7">
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" ref="E58" si="121">E57+B58</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" ref="F58" si="122">IF($B58&gt;0,0,F57+C58)</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" ref="G58" si="123">IF($B58&gt;0,0,IF(C58&gt;0,0,G57+D58))</f>
+        <f t="shared" si="122"/>
         <v>21</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -3343,267 +3356,251 @@
       <c r="I58" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J58" s="7"/>
       <c r="K58" s="7" t="str">
-        <f t="shared" ref="K58" si="124">E58&amp;"."&amp;F58&amp;"."&amp;G58</f>
+        <f t="shared" si="123"/>
         <v>0.0.21</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M58">
         <v>3</v>
       </c>
-      <c r="O58">
-        <f>SUM(M54:M58)</f>
+    </row>
+    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>43615</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" ref="E59" si="124">E58+B59</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" ref="F59" si="125">IF($B59&gt;0,0,F58+C59)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" ref="G59" si="126">IF($B59&gt;0,0,IF(C59&gt;0,0,G58+D59))</f>
+        <v>21</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7" t="str">
+        <f t="shared" ref="K59" si="127">E59&amp;"."&amp;F59&amp;"."&amp;G59</f>
+        <v>0.0.21</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <f>SUM(M55:M59)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>43618</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7">
-        <f t="shared" ref="E59" si="125">E58+B59</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" ref="F59" si="126">IF($B59&gt;0,0,F58+C59)</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <f t="shared" ref="G59" si="127">IF($B59&gt;0,0,IF(C59&gt;0,0,G58+D59))</f>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" ref="E60" si="128">E59+B60</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" ref="F60" si="129">IF($B60&gt;0,0,F59+C60)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" ref="G60" si="130">IF($B60&gt;0,0,IF(C60&gt;0,0,G59+D60))</f>
         <v>22</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K59" s="7" t="str">
-        <f t="shared" ref="K59" si="128">E59&amp;"."&amp;F59&amp;"."&amp;G59</f>
+      <c r="H60" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7" t="str">
+        <f t="shared" ref="K60" si="131">E60&amp;"."&amp;F60&amp;"."&amp;G60</f>
         <v>0.0.22</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L60" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>43620</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" ref="E60" si="129">E59+B60</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" ref="F60" si="130">IF($B60&gt;0,0,F59+C60)</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <f t="shared" ref="G60" si="131">IF($B60&gt;0,0,IF(C60&gt;0,0,G59+D60))</f>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" ref="E61" si="132">E60+B61</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" ref="F61" si="133">IF($B61&gt;0,0,F60+C61)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" ref="G61" si="134">IF($B61&gt;0,0,IF(C61&gt;0,0,G60+D61))</f>
         <v>23</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K60" s="7" t="str">
-        <f t="shared" ref="K60" si="132">E60&amp;"."&amp;F60&amp;"."&amp;G60</f>
+      <c r="H61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7" t="str">
+        <f t="shared" ref="K61" si="135">E61&amp;"."&amp;F61&amp;"."&amp;G61</f>
         <v>0.0.23</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="315" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="M61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="315" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>43629</v>
       </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7">
-        <f t="shared" ref="E61" si="133">E60+B61</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" ref="F61" si="134">IF($B61&gt;0,0,F60+C61)</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <f t="shared" ref="G61" si="135">IF($B61&gt;0,0,IF(C61&gt;0,0,G60+D61))</f>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" ref="E62" si="136">E61+B62</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" ref="F62" si="137">IF($B62&gt;0,0,F61+C62)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" ref="G62" si="138">IF($B62&gt;0,0,IF(C62&gt;0,0,G61+D62))</f>
         <v>24</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K61" s="7" t="str">
-        <f t="shared" ref="K61" si="136">E61&amp;"."&amp;F61&amp;"."&amp;G61</f>
+      <c r="H62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7" t="str">
+        <f t="shared" ref="K62" si="139">E62&amp;"."&amp;F62&amp;"."&amp;G62</f>
         <v>0.0.24</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="210" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>43634</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7">
-        <v>2</v>
-      </c>
-      <c r="E62" s="7">
-        <f t="shared" ref="E62" si="137">E61+B62</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" ref="F62" si="138">IF($B62&gt;0,0,F61+C62)</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <f t="shared" ref="G62" si="139">IF($B62&gt;0,0,IF(C62&gt;0,0,G61+D62))</f>
-        <v>26</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K62" s="7" t="str">
-        <f t="shared" ref="K62" si="140">E62&amp;"."&amp;F62&amp;"."&amp;G62</f>
-        <v>0.0.26</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="M62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
+        <v>43634</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7">
+        <v>2</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" ref="E63" si="140">E62+B63</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" ref="F63" si="141">IF($B63&gt;0,0,F62+C63)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" ref="G63" si="142">IF($B63&gt;0,0,IF(C63&gt;0,0,G62+D63))</f>
+        <v>26</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7" t="str">
+        <f t="shared" ref="K63" si="143">E63&amp;"."&amp;F63&amp;"."&amp;G63</f>
+        <v>0.0.26</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>43640</v>
       </c>
-      <c r="D63" s="7">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
-        <f t="shared" ref="E63" si="141">E62+B63</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <f t="shared" ref="F63" si="142">IF($B63&gt;0,0,F62+C63)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <f t="shared" ref="G63" si="143">IF($B63&gt;0,0,IF(C63&gt;0,0,G62+D63))</f>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" ref="E64" si="144">E63+B64</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" ref="F64" si="145">IF($B64&gt;0,0,F63+C64)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" ref="G64" si="146">IF($B64&gt;0,0,IF(C64&gt;0,0,G63+D64))</f>
         <v>26</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K63" s="7" t="str">
-        <f t="shared" ref="K63" si="144">E63&amp;"."&amp;F63&amp;"."&amp;G63</f>
+      <c r="H64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7" t="str">
+        <f t="shared" ref="K64" si="147">E64&amp;"."&amp;F64&amp;"."&amp;G64</f>
         <v>0.0.26</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M63">
+      <c r="M64">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>43641</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7">
-        <v>0</v>
-      </c>
-      <c r="E64" s="7">
-        <f t="shared" ref="E64" si="145">E63+B64</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <f t="shared" ref="F64" si="146">IF($B64&gt;0,0,F63+C64)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="7">
-        <f t="shared" ref="G64" si="147">IF($B64&gt;0,0,IF(C64&gt;0,0,G63+D64))</f>
-        <v>26</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K64" s="7" t="str">
-        <f t="shared" ref="K64" si="148">E64&amp;"."&amp;F64&amp;"."&amp;G64</f>
-        <v>0.0.26</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="240" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>43642</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3611,15 +3608,15 @@
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" ref="E65" si="149">E64+B65</f>
+        <f t="shared" ref="E65" si="148">E64+B65</f>
         <v>0</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" ref="F65" si="150">IF($B65&gt;0,0,F64+C65)</f>
+        <f t="shared" ref="F65" si="149">IF($B65&gt;0,0,F64+C65)</f>
         <v>0</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" ref="G65" si="151">IF($B65&gt;0,0,IF(C65&gt;0,0,G64+D65))</f>
+        <f t="shared" ref="G65" si="150">IF($B65&gt;0,0,IF(C65&gt;0,0,G64+D65))</f>
         <v>26</v>
       </c>
       <c r="H65" s="7" t="s">
@@ -3628,202 +3625,194 @@
       <c r="I65" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J65" s="7"/>
       <c r="K65" s="7" t="str">
-        <f t="shared" ref="K65" si="152">E65&amp;"."&amp;F65&amp;"."&amp;G65</f>
+        <f t="shared" ref="K65" si="151">E65&amp;"."&amp;F65&amp;"."&amp;G65</f>
         <v>0.0.26</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" ref="E66" si="153">E65+B66</f>
+        <f t="shared" ref="E66" si="152">E65+B66</f>
         <v>0</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66" si="154">IF($B66&gt;0,0,F65+C66)</f>
+        <f t="shared" ref="F66" si="153">IF($B66&gt;0,0,F65+C66)</f>
         <v>0</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" ref="G66" si="155">IF($B66&gt;0,0,IF(C66&gt;0,0,G65+D66))</f>
+        <f t="shared" ref="G66" si="154">IF($B66&gt;0,0,IF(C66&gt;0,0,G65+D66))</f>
+        <v>26</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7" t="str">
+        <f t="shared" ref="K66" si="155">E66&amp;"."&amp;F66&amp;"."&amp;G66</f>
+        <v>0.0.26</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>43643</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" ref="E67" si="156">E66+B67</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <f t="shared" ref="F67" si="157">IF($B67&gt;0,0,F66+C67)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" ref="G67" si="158">IF($B67&gt;0,0,IF(C67&gt;0,0,G66+D67))</f>
         <v>27</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K66" s="7" t="str">
-        <f t="shared" ref="K66" si="156">E66&amp;"."&amp;F66&amp;"."&amp;G66</f>
+      <c r="H67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7" t="str">
+        <f t="shared" ref="K67" si="159">E67&amp;"."&amp;F67&amp;"."&amp;G67</f>
         <v>0.0.27</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L67" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="M66">
+      <c r="M67">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+    <row r="68" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <v>43645</v>
       </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7">
-        <f t="shared" ref="E67" si="157">E66+B67</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="7">
-        <f t="shared" ref="F67" si="158">IF($B67&gt;0,0,F66+C67)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="7">
-        <f t="shared" ref="G67" si="159">IF($B67&gt;0,0,IF(C67&gt;0,0,G66+D67))</f>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" ref="E68" si="160">E67+B68</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" ref="F68" si="161">IF($B68&gt;0,0,F67+C68)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" ref="G68" si="162">IF($B68&gt;0,0,IF(C68&gt;0,0,G67+D68))</f>
         <v>28</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K67" s="7" t="str">
-        <f t="shared" ref="K67" si="160">E67&amp;"."&amp;F67&amp;"."&amp;G67</f>
+      <c r="H68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7" t="str">
+        <f t="shared" ref="K68" si="163">E68&amp;"."&amp;F68&amp;"."&amp;G68</f>
         <v>0.0.28</v>
       </c>
-      <c r="L67" s="9" t="s">
+      <c r="L68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M67">
+      <c r="M68">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>43646</v>
       </c>
-      <c r="D68" s="7">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7">
-        <f t="shared" ref="E68" si="161">E67+B68</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="7">
-        <f t="shared" ref="F68" si="162">IF($B68&gt;0,0,F67+C68)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="7">
-        <f t="shared" ref="G68" si="163">IF($B68&gt;0,0,IF(C68&gt;0,0,G67+D68))</f>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" ref="E69" si="164">E68+B69</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" ref="F69" si="165">IF($B69&gt;0,0,F68+C69)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" ref="G69" si="166">IF($B69&gt;0,0,IF(C69&gt;0,0,G68+D69))</f>
         <v>29</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K68" s="7" t="str">
-        <f t="shared" ref="K68" si="164">E68&amp;"."&amp;F68&amp;"."&amp;G68</f>
+      <c r="H69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7" t="str">
+        <f t="shared" ref="K69" si="167">E69&amp;"."&amp;F69&amp;"."&amp;G69</f>
         <v>0.0.29</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L69" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="M68">
-        <v>2</v>
-      </c>
-      <c r="O68">
-        <f>SUM(M59:M68)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="210" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>43648</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7">
-        <f t="shared" ref="E69" si="165">E68+B69</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="7">
-        <f t="shared" ref="F69" si="166">IF($B69&gt;0,0,F68+C69)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="7">
-        <f t="shared" ref="G69" si="167">IF($B69&gt;0,0,IF(C69&gt;0,0,G68+D69))</f>
-        <v>30</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K69" s="7" t="str">
-        <f t="shared" ref="K69" si="168">E69&amp;"."&amp;F69&amp;"."&amp;G69</f>
-        <v>0.0.30</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="M69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f>SUM(M60:M69)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>43650</v>
-      </c>
+        <v>43648</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="7">
         <v>1</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" ref="E70" si="169">E69+B70</f>
+        <f t="shared" ref="E70" si="168">E69+B70</f>
         <v>0</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" ref="F70" si="170">IF($B70&gt;0,0,F69+C70)</f>
+        <f t="shared" ref="F70" si="169">IF($B70&gt;0,0,F69+C70)</f>
         <v>0</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" ref="G70" si="171">IF($B70&gt;0,0,IF(C70&gt;0,0,G69+D70))</f>
-        <v>31</v>
+        <f t="shared" ref="G70" si="170">IF($B70&gt;0,0,IF(C70&gt;0,0,G69+D70))</f>
+        <v>30</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>84</v>
@@ -3835,78 +3824,86 @@
         <v>78</v>
       </c>
       <c r="K70" s="7" t="str">
-        <f t="shared" ref="K70" si="172">E70&amp;"."&amp;F70&amp;"."&amp;G70</f>
-        <v>0.0.31</v>
+        <f t="shared" ref="K70" si="171">E70&amp;"."&amp;F70&amp;"."&amp;G70</f>
+        <v>0.0.30</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="D71" s="7">
         <v>1</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" ref="E71" si="173">E70+B71</f>
+        <f t="shared" ref="E71" si="172">E70+B71</f>
         <v>0</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ref="F71" si="174">IF($B71&gt;0,0,F70+C71)</f>
+        <f t="shared" ref="F71" si="173">IF($B71&gt;0,0,F70+C71)</f>
         <v>0</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" ref="G71" si="175">IF($B71&gt;0,0,IF(C71&gt;0,0,G70+D71))</f>
-        <v>32</v>
+        <f t="shared" ref="G71" si="174">IF($B71&gt;0,0,IF(C71&gt;0,0,G70+D71))</f>
+        <v>31</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>84</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>78</v>
       </c>
       <c r="K71" s="7" t="str">
-        <f t="shared" ref="K71" si="176">E71&amp;"."&amp;F71&amp;"."&amp;G71</f>
+        <f t="shared" ref="K71" si="175">E71&amp;"."&amp;F71&amp;"."&amp;G71</f>
+        <v>0.0.31</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>43651</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" ref="E72" si="176">E71+B72</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" ref="F72" si="177">IF($B72&gt;0,0,F71+C72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" ref="G72" si="178">IF($B72&gt;0,0,IF(C72&gt;0,0,G71+D72))</f>
+        <v>32</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K72" s="7" t="str">
+        <f t="shared" ref="K72" si="179">E72&amp;"."&amp;F72&amp;"."&amp;G72</f>
         <v>0.0.32</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L72" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="M71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>43653</v>
-      </c>
-      <c r="D72" s="7">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7">
-        <f t="shared" ref="E72" si="177">E71+B72</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="7">
-        <f t="shared" ref="F72" si="178">IF($B72&gt;0,0,F71+C72)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="7">
-        <f t="shared" ref="G72" si="179">IF($B72&gt;0,0,IF(C72&gt;0,0,G71+D72))</f>
-        <v>33</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7" t="str">
-        <f t="shared" ref="K72" si="180">E72&amp;"."&amp;F72&amp;"."&amp;G72</f>
-        <v>0.0.33</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -3914,58 +3911,53 @@
     </row>
     <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>43656</v>
+        <v>43653</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" ref="E73" si="181">E72+B73</f>
+        <f t="shared" ref="E73" si="180">E72+B73</f>
         <v>0</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" ref="F73" si="182">IF($B73&gt;0,0,F72+C73)</f>
+        <f t="shared" ref="F73" si="181">IF($B73&gt;0,0,F72+C73)</f>
         <v>0</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" ref="G73" si="183">IF($B73&gt;0,0,IF(C73&gt;0,0,G72+D73))</f>
-        <v>34</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" ref="G73" si="182">IF($B73&gt;0,0,IF(C73&gt;0,0,G72+D73))</f>
+        <v>33</v>
+      </c>
+      <c r="J73" s="7"/>
       <c r="K73" s="7" t="str">
-        <f t="shared" ref="K73:K74" si="184">E73&amp;"."&amp;F73&amp;"."&amp;G73</f>
-        <v>0.0.34</v>
+        <f t="shared" ref="K73" si="183">E73&amp;"."&amp;F73&amp;"."&amp;G73</f>
+        <v>0.0.33</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>43664</v>
+        <v>43656</v>
       </c>
       <c r="D74" s="7">
         <v>1</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" ref="E74" si="185">E73+B74</f>
+        <f t="shared" ref="E74" si="184">E73+B74</f>
         <v>0</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" ref="F74" si="186">IF($B74&gt;0,0,F73+C74)</f>
+        <f t="shared" ref="F74" si="185">IF($B74&gt;0,0,F73+C74)</f>
         <v>0</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" ref="G74" si="187">IF($B74&gt;0,0,IF(C74&gt;0,0,G73+D74))</f>
-        <v>35</v>
+        <f t="shared" ref="G74" si="186">IF($B74&gt;0,0,IF(C74&gt;0,0,G73+D74))</f>
+        <v>34</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>84</v>
@@ -3974,22 +3966,20 @@
         <v>78</v>
       </c>
       <c r="K74" s="7" t="str">
-        <f t="shared" si="184"/>
-        <v>0.0.35</v>
+        <f t="shared" ref="K74:K75" si="187">E74&amp;"."&amp;F74&amp;"."&amp;G74</f>
+        <v>0.0.34</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>43670</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+        <v>43664</v>
+      </c>
       <c r="D75" s="7">
         <v>1</v>
       </c>
@@ -4003,57 +3993,63 @@
       </c>
       <c r="G75" s="7">
         <f t="shared" ref="G75" si="190">IF($B75&gt;0,0,IF(C75&gt;0,0,G74+D75))</f>
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>78</v>
       </c>
       <c r="K75" s="7" t="str">
-        <f t="shared" ref="K75:K76" si="191">E75&amp;"."&amp;F75&amp;"."&amp;G75</f>
-        <v>0.0.36</v>
+        <f t="shared" si="187"/>
+        <v>0.0.35</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M75" s="7">
+        <v>88</v>
+      </c>
+      <c r="M75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <v>43671</v>
+        <v>43670</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" ref="E76" si="192">E75+B76</f>
+        <f t="shared" ref="E76" si="191">E75+B76</f>
         <v>0</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" ref="F76" si="193">IF($B76&gt;0,0,F75+C76)</f>
+        <f t="shared" ref="F76" si="192">IF($B76&gt;0,0,F75+C76)</f>
         <v>0</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" ref="G76" si="194">IF($B76&gt;0,0,IF(C76&gt;0,0,G75+D76))</f>
+        <f t="shared" ref="G76" si="193">IF($B76&gt;0,0,IF(C76&gt;0,0,G75+D76))</f>
         <v>36</v>
       </c>
+      <c r="J76" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="K76" s="7" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" ref="K76:K77" si="194">E76&amp;"."&amp;F76&amp;"."&amp;G76</f>
         <v>0.0.36</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <v>43673</v>
+        <v>43671</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4072,120 +4068,119 @@
         <f t="shared" ref="G77" si="197">IF($B77&gt;0,0,IF(C77&gt;0,0,G76+D77))</f>
         <v>36</v>
       </c>
-      <c r="J77" s="7"/>
       <c r="K77" s="7" t="str">
-        <f t="shared" ref="K77" si="198">E77&amp;"."&amp;F77&amp;"."&amp;G77</f>
+        <f t="shared" si="194"/>
         <v>0.0.36</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>43674</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
+        <v>43673</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7">
+        <v>0</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" ref="E78" si="199">E77+B78</f>
+        <f t="shared" ref="E78" si="198">E77+B78</f>
         <v>0</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" ref="F78" si="200">IF($B78&gt;0,0,F77+C78)</f>
+        <f t="shared" ref="F78" si="199">IF($B78&gt;0,0,F77+C78)</f>
         <v>0</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" ref="G78" si="201">IF($B78&gt;0,0,IF(C78&gt;0,0,G77+D78))</f>
-        <v>37</v>
+        <f t="shared" ref="G78" si="200">IF($B78&gt;0,0,IF(C78&gt;0,0,G77+D78))</f>
+        <v>36</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7" t="str">
-        <f t="shared" ref="K78" si="202">E78&amp;"."&amp;F78&amp;"."&amp;G78</f>
-        <v>0.0.37</v>
+        <f t="shared" ref="K78" si="201">E78&amp;"."&amp;F78&amp;"."&amp;G78</f>
+        <v>0.0.36</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
-        <v>43675</v>
+        <v>43674</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" ref="E79" si="203">E78+B79</f>
+        <f t="shared" ref="E79" si="202">E78+B79</f>
         <v>0</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" ref="F79" si="204">IF($B79&gt;0,0,F78+C79)</f>
+        <f t="shared" ref="F79" si="203">IF($B79&gt;0,0,F78+C79)</f>
         <v>0</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" ref="G79" si="205">IF($B79&gt;0,0,IF(C79&gt;0,0,G78+D79))</f>
-        <v>38</v>
+        <f t="shared" ref="G79" si="204">IF($B79&gt;0,0,IF(C79&gt;0,0,G78+D79))</f>
+        <v>37</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="str">
-        <f t="shared" ref="K79" si="206">E79&amp;"."&amp;F79&amp;"."&amp;G79</f>
-        <v>0.0.38</v>
+        <f t="shared" ref="K79" si="205">E79&amp;"."&amp;F79&amp;"."&amp;G79</f>
+        <v>0.0.37</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79">
-        <v>3</v>
-      </c>
-      <c r="O79" s="7">
-        <f>SUM(M69:M79)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
-        <v>43679</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7">
+        <v>43675</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" ref="E80" si="207">E79+B80</f>
+        <f t="shared" ref="E80" si="206">E79+B80</f>
         <v>0</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" ref="F80" si="208">IF($B80&gt;0,0,F79+C80)</f>
+        <f t="shared" ref="F80" si="207">IF($B80&gt;0,0,F79+C80)</f>
         <v>0</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" ref="G80" si="209">IF($B80&gt;0,0,IF(C80&gt;0,0,G79+D80))</f>
-        <v>39</v>
+        <f t="shared" ref="G80" si="208">IF($B80&gt;0,0,IF(C80&gt;0,0,G79+D80))</f>
+        <v>38</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7" t="str">
-        <f t="shared" ref="K80" si="210">E80&amp;"."&amp;F80&amp;"."&amp;G80</f>
-        <v>0.0.39</v>
+        <f t="shared" ref="K80" si="209">E80&amp;"."&amp;F80&amp;"."&amp;G80</f>
+        <v>0.0.38</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O80" s="7">
+        <f>SUM(M70:M80)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <v>43680</v>
+        <v>43679</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4193,32 +4188,32 @@
         <v>1</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" ref="E81" si="211">E80+B81</f>
+        <f t="shared" ref="E81" si="210">E80+B81</f>
         <v>0</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" ref="F81" si="212">IF($B81&gt;0,0,F80+C81)</f>
+        <f t="shared" ref="F81" si="211">IF($B81&gt;0,0,F80+C81)</f>
         <v>0</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" ref="G81" si="213">IF($B81&gt;0,0,IF(C81&gt;0,0,G80+D81))</f>
-        <v>40</v>
+        <f t="shared" ref="G81" si="212">IF($B81&gt;0,0,IF(C81&gt;0,0,G80+D81))</f>
+        <v>39</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7" t="str">
-        <f t="shared" ref="K81" si="214">E81&amp;"."&amp;F81&amp;"."&amp;G81</f>
-        <v>0.0.40</v>
+        <f t="shared" ref="K81" si="213">E81&amp;"."&amp;F81&amp;"."&amp;G81</f>
+        <v>0.0.39</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
-        <v>43681</v>
+        <v>43680</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4226,40 +4221,32 @@
         <v>1</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" ref="E82" si="215">E81+B82</f>
+        <f t="shared" ref="E82" si="214">E81+B82</f>
         <v>0</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" ref="F82" si="216">IF($B82&gt;0,0,F81+C82)</f>
+        <f t="shared" ref="F82" si="215">IF($B82&gt;0,0,F81+C82)</f>
         <v>0</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" ref="G82" si="217">IF($B82&gt;0,0,IF(C82&gt;0,0,G81+D82))</f>
-        <v>41</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>78</v>
-      </c>
+        <f t="shared" ref="G82" si="216">IF($B82&gt;0,0,IF(C82&gt;0,0,G81+D82))</f>
+        <v>40</v>
+      </c>
+      <c r="J82" s="7"/>
       <c r="K82" s="7" t="str">
-        <f t="shared" ref="K82" si="218">E82&amp;"."&amp;F82&amp;"."&amp;G82</f>
-        <v>0.0.41</v>
+        <f t="shared" ref="K82" si="217">E82&amp;"."&amp;F82&amp;"."&amp;G82</f>
+        <v>0.0.40</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
-        <v>43684</v>
+        <v>43681</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4267,99 +4254,697 @@
         <v>1</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" ref="E83" si="219">E82+B83</f>
+        <f t="shared" ref="E83" si="218">E82+B83</f>
         <v>0</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" ref="F83" si="220">IF($B83&gt;0,0,F82+C83)</f>
+        <f t="shared" ref="F83" si="219">IF($B83&gt;0,0,F82+C83)</f>
         <v>0</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" ref="G83" si="221">IF($B83&gt;0,0,IF(C83&gt;0,0,G82+D83))</f>
-        <v>42</v>
+        <f t="shared" ref="G83" si="220">IF($B83&gt;0,0,IF(C83&gt;0,0,G82+D83))</f>
+        <v>41</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>78</v>
       </c>
       <c r="K83" s="7" t="str">
-        <f t="shared" ref="K83" si="222">E83&amp;"."&amp;F83&amp;"."&amp;G83</f>
+        <f t="shared" ref="K83" si="221">E83&amp;"."&amp;F83&amp;"."&amp;G83</f>
+        <v>0.0.41</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>43684</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7">
+        <f t="shared" ref="E84" si="222">E83+B84</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" ref="F84" si="223">IF($B84&gt;0,0,F83+C84)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" ref="G84" si="224">IF($B84&gt;0,0,IF(C84&gt;0,0,G83+D84))</f>
+        <v>42</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K84" s="7" t="str">
+        <f t="shared" ref="K84" si="225">E84&amp;"."&amp;F84&amp;"."&amp;G84</f>
         <v>0.0.42</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L84" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="M83">
+      <c r="M84">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>43686</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" s="7">
-        <f t="shared" ref="E84:E85" si="223">E83+B84</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="7">
-        <f t="shared" ref="F84:F85" si="224">IF($B84&gt;0,0,F83+C84)</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="7">
-        <f t="shared" ref="G84:G85" si="225">IF($B84&gt;0,0,IF(C84&gt;0,0,G83+D84))</f>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" ref="E85:E86" si="226">E84+B85</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" ref="F85:F86" si="227">IF($B85&gt;0,0,F84+C85)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" ref="G85:G86" si="228">IF($B85&gt;0,0,IF(C85&gt;0,0,G84+D85))</f>
         <v>43</v>
       </c>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7" t="str">
-        <f t="shared" ref="K84:K85" si="226">E84&amp;"."&amp;F84&amp;"."&amp;G84</f>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7" t="str">
+        <f t="shared" ref="K85:K86" si="229">E85&amp;"."&amp;F85&amp;"."&amp;G85</f>
         <v>0.0.43</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L85" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M84">
+      <c r="M85">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="240" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+    <row r="86" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>43687</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="7">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="7">
-        <f t="shared" si="224"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="7">
-        <f t="shared" si="225"/>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="226"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <f t="shared" si="227"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="228"/>
         <v>44</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J85" s="7" t="s">
+      <c r="H86" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K85" s="7" t="str">
-        <f t="shared" si="226"/>
+      <c r="K86" s="7" t="str">
+        <f t="shared" si="229"/>
         <v>0.0.44</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L86" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M85">
+      <c r="M86">
         <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>43688</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" ref="E87" si="230">E86+B87</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <f t="shared" ref="F87" si="231">IF($B87&gt;0,0,F86+C87)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" ref="G87" si="232">IF($B87&gt;0,0,IF(C87&gt;0,0,G86+D87))</f>
+        <v>45</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7" t="str">
+        <f t="shared" ref="K87" si="233">E87&amp;"."&amp;F87&amp;"."&amp;G87</f>
+        <v>0.0.45</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>43694</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
+        <f t="shared" ref="E88" si="234">E87+B88</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" ref="F88" si="235">IF($B88&gt;0,0,F87+C88)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" ref="G88" si="236">IF($B88&gt;0,0,IF(C88&gt;0,0,G87+D88))</f>
+        <v>45</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7" t="str">
+        <f t="shared" ref="K88" si="237">E88&amp;"."&amp;F88&amp;"."&amp;G88</f>
+        <v>0.0.45</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>43695</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" ref="E89" si="238">E88+B89</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <f t="shared" ref="F89" si="239">IF($B89&gt;0,0,F88+C89)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" ref="G89" si="240">IF($B89&gt;0,0,IF(C89&gt;0,0,G88+D89))</f>
+        <v>46</v>
+      </c>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7" t="str">
+        <f t="shared" ref="K89:K91" si="241">E89&amp;"."&amp;F89&amp;"."&amp;G89</f>
+        <v>0.0.46</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>43702</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" ref="E90:E92" si="242">E89+B90</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" ref="F90:F92" si="243">IF($B90&gt;0,0,F89+C90)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" ref="G90:G91" si="244">IF($B90&gt;0,0,IF(C90&gt;0,0,G89+D90))</f>
+        <v>46</v>
+      </c>
+      <c r="K90" s="7" t="str">
+        <f t="shared" si="241"/>
+        <v>0.0.46</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>43703</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="7">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" si="244"/>
+        <v>46</v>
+      </c>
+      <c r="K91" s="7" t="str">
+        <f t="shared" si="241"/>
+        <v>0.0.46</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>43705</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="7">
+        <f t="shared" si="243"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" ref="G92" si="245">IF($B92&gt;0,0,IF(C92&gt;0,0,G91+D92))</f>
+        <v>47</v>
+      </c>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7" t="str">
+        <f t="shared" ref="K92" si="246">E92&amp;"."&amp;F92&amp;"."&amp;G92</f>
+        <v>0.0.47</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <f>SUM(M81:M92)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>43709</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" ref="E93:E100" si="247">E92+B93</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="7">
+        <f t="shared" ref="F93:F100" si="248">IF($B93&gt;0,0,F92+C93)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" ref="G93" si="249">IF($B93&gt;0,0,IF(C93&gt;0,0,G92+D93))</f>
+        <v>48</v>
+      </c>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7" t="str">
+        <f t="shared" ref="K93:K94" si="250">E93&amp;"."&amp;F93&amp;"."&amp;G93</f>
+        <v>0.0.48</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>43710</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" ref="G94" si="251">IF($B94&gt;0,0,IF(C94&gt;0,0,G93+D94))</f>
+        <v>49</v>
+      </c>
+      <c r="K94" s="7" t="str">
+        <f t="shared" si="250"/>
+        <v>0.0.49</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>43720</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" ref="G95" si="252">IF($B95&gt;0,0,IF(C95&gt;0,0,G94+D95))</f>
+        <v>50</v>
+      </c>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7" t="str">
+        <f t="shared" ref="K95" si="253">E95&amp;"."&amp;F95&amp;"."&amp;G95</f>
+        <v>0.0.50</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>43723</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" ref="G96" si="254">IF($B96&gt;0,0,IF(C96&gt;0,0,G95+D96))</f>
+        <v>51</v>
+      </c>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7" t="str">
+        <f t="shared" ref="K96" si="255">E96&amp;"."&amp;F96&amp;"."&amp;G96</f>
+        <v>0.0.51</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43779</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" ref="G97" si="256">IF($B97&gt;0,0,IF(C97&gt;0,0,G96+D97))</f>
+        <v>52</v>
+      </c>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7" t="str">
+        <f t="shared" ref="K97:K98" si="257">E97&amp;"."&amp;F97&amp;"."&amp;G97</f>
+        <v>0.0.52</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>43801</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" ref="G98" si="258">IF($B98&gt;0,0,IF(C98&gt;0,0,G97+D98))</f>
+        <v>53</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K98" s="7" t="str">
+        <f t="shared" si="257"/>
+        <v>0.0.53</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <f>SUM(M93:M98)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>43846</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" ref="G99" si="259">IF($B99&gt;0,0,IF(C99&gt;0,0,G98+D99))</f>
+        <v>54</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K99" s="7" t="str">
+        <f t="shared" ref="K99" si="260">E99&amp;"."&amp;F99&amp;"."&amp;G99</f>
+        <v>0.0.54</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M99">
+        <v>0.5</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>43910</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="248"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" ref="G100" si="261">IF($B100&gt;0,0,IF(C100&gt;0,0,G99+D100))</f>
+        <v>55</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K100" s="7" t="str">
+        <f t="shared" ref="K100:K101" si="262">E100&amp;"."&amp;F100&amp;"."&amp;G100</f>
+        <v>0.0.55</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>43955</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7">
+        <f t="shared" ref="E101" si="263">E100+B101</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" ref="F101" si="264">IF($B101&gt;0,0,F100+C101)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" ref="G101" si="265">IF($B101&gt;0,0,IF(C101&gt;0,0,G100+D101))</f>
+        <v>56</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K101" s="7" t="str">
+        <f t="shared" si="262"/>
+        <v>0.0.56</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>43957</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" ref="E102" si="266">E101+B102</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" ref="F102" si="267">IF($B102&gt;0,0,F101+C102)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" ref="G102" si="268">IF($B102&gt;0,0,IF(C102&gt;0,0,G101+D102))</f>
+        <v>57</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" s="7" t="str">
+        <f t="shared" ref="K102" si="269">E102&amp;"."&amp;F102&amp;"."&amp;G102</f>
+        <v>0.0.57</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bank/bank/bankUpdateLog.xlsx
+++ b/Bank/bank/bankUpdateLog.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A7884-1AD2-41CB-A210-6BB44D9B8254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -675,11 +686,39 @@
 update: bank/index.html
 update: bank/navigation-menu.html</t>
   </si>
+  <si>
+    <t>fixed: ConvertWorksheet2Array, getCellByColumnAndRow(startFrom1, colIndex)</t>
+  </si>
+  <si>
+    <t>because upgraded from PHPExcel to PHPSpreadsheet</t>
+  </si>
+  <si>
+    <t>move
+js_bank/app.config.js to bank/js/app.initial.js
+js_bank/app.js to bank/js/app.route.config.js
+add: polyfill js files
+polyfill.array.prototype.every.js
+polyfill.array.prototype.filter.js
+polyfill.array.prototype.find.js
+polyfill.array.prototype.foreach.js
+polyfill.array.prototype.map.js
+update: split the service.js into 10 service.*.js files
+service.core.js
+service.dataadapter.js
+service.dataadaptermongodb.js
+service.dataadaptermssql.js
+service.dataadaptermysql.js
+service.js
+service.lockmanager.js
+service.messageservice.js
+service.security.js
+service.tablemanager.js</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
@@ -873,7 +912,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -964,6 +1003,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -999,6 +1055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1174,17 +1247,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L107" sqref="L107"/>
+      <selection pane="bottomRight" activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4937,7 +5010,7 @@
         <v>78</v>
       </c>
       <c r="K102" s="7" t="str">
-        <f t="shared" ref="K102" si="269">E102&amp;"."&amp;F102&amp;"."&amp;G102</f>
+        <f t="shared" ref="K102:K104" si="269">E102&amp;"."&amp;F102&amp;"."&amp;G102</f>
         <v>0.0.57</v>
       </c>
       <c r="L102" s="9" t="s">
@@ -4945,6 +5018,78 @@
       </c>
       <c r="M102">
         <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>44035</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" ref="E103" si="270">E102+B103</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" ref="F103" si="271">IF($B103&gt;0,0,F102+C103)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" ref="G103" si="272">IF($B103&gt;0,0,IF(C103&gt;0,0,G102+D103))</f>
+        <v>58</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K103" s="7" t="str">
+        <f t="shared" si="269"/>
+        <v>0.0.58</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M103">
+        <v>0.5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>44210</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="7">
+        <f t="shared" ref="E104" si="273">E103+B104</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="7">
+        <f t="shared" ref="F104" si="274">IF($B104&gt;0,0,F103+C104)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" ref="G104" si="275">IF($B104&gt;0,0,IF(C104&gt;0,0,G103+D104))</f>
+        <v>59</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K104" s="7" t="str">
+        <f t="shared" si="269"/>
+        <v>0.0.59</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M104">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
